--- a/motors.xlsx
+++ b/motors.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="motors" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Ra [Ohm]</t>
   </si>
@@ -68,6 +68,33 @@
   </si>
   <si>
     <t>89.4 mNm</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>Jm[Kg-m^2]</t>
+  </si>
+  <si>
+    <t>b[Nm s/rad]</t>
+  </si>
+  <si>
+    <t>m[Kg]</t>
+  </si>
+  <si>
+    <t>Kb [V/(rad/s)]</t>
+  </si>
+  <si>
+    <t>Kt [Nm/A]</t>
+  </si>
+  <si>
+    <t>DCX 32L</t>
+  </si>
+  <si>
+    <t>TRms [Nm]</t>
+  </si>
+  <si>
+    <t>Tpico [Nm]</t>
   </si>
 </sst>
 </file>
@@ -210,7 +237,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,8 +417,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -506,6 +539,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -551,10 +599,25 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -910,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,6 +1170,29 @@
         <v>1.5599999999999999E-2</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.45</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8.2000000000000001E-5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.6800000000000002E-7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F9" s="1">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8.8999999999999999E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1114,15 +1200,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1133,7 +1223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1144,7 +1234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1154,6 +1244,150 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="3"/>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="3"/>
+      <c r="D8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.108</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1.84</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="3"/>
+      <c r="D9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>3.4E-5</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1.92E-4</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="3"/>
+      <c r="D10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="9">
+        <v>7.7600000000000002E-6</v>
+      </c>
+      <c r="F10" s="7">
+        <v>8.9999999999999996E-7</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="9">
+        <v>3.4999999999999999E-6</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.5E-6</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="3"/>
+      <c r="D12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="F12" s="7">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="3"/>
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2.29E-2</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="3"/>
+      <c r="D14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>2.29E-2</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="3"/>
+      <c r="D15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="9">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F15" s="8">
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="3"/>
+      <c r="D16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
